--- a/api/DataBase/portfolio.xlsx
+++ b/api/DataBase/portfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\CDB\CreditEvalution\PotofolioWebsite\api\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCE5594-E875-46EB-B231-7FC4C4738FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4B4046-9918-4A23-BFF9-072533FA9BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{B5F7795C-34A5-4557-B271-E377912B6722}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{B5F7795C-34A5-4557-B271-E377912B6722}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="nissan" sheetId="3" r:id="rId3"/>
     <sheet name="toyota" sheetId="4" r:id="rId4"/>
     <sheet name="honda" sheetId="5" r:id="rId5"/>
+    <sheet name="micro" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="11">
   <si>
     <t>Vehicle Category</t>
   </si>
@@ -427,7 +428,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -814,7 +815,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169B9598-9291-4A1B-A037-2E1C0133E790}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1641,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552DE8D8-C7C0-4237-BC23-0D6AA9F9D6F6}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1910,4 +1913,279 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B99DCC1-59F6-4E17-8056-EC8A0C1CEEA1}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2">
+        <v>12545</v>
+      </c>
+      <c r="C2">
+        <v>1254825885</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2020</v>
+      </c>
+      <c r="B3">
+        <v>12545</v>
+      </c>
+      <c r="C3">
+        <v>1254825885</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2020</v>
+      </c>
+      <c r="B4">
+        <v>12545</v>
+      </c>
+      <c r="C4">
+        <v>1254825885</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5">
+        <v>12545</v>
+      </c>
+      <c r="C5">
+        <v>1254825885</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6">
+        <v>12545</v>
+      </c>
+      <c r="C6">
+        <v>1254825885</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7">
+        <v>12545</v>
+      </c>
+      <c r="C7">
+        <v>1254825885</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2020</v>
+      </c>
+      <c r="B8">
+        <v>12545</v>
+      </c>
+      <c r="C8">
+        <v>1254825885</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2020</v>
+      </c>
+      <c r="B9">
+        <v>12545</v>
+      </c>
+      <c r="C9">
+        <v>1254825885</v>
+      </c>
+      <c r="D9">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2020</v>
+      </c>
+      <c r="B10">
+        <v>12545</v>
+      </c>
+      <c r="C10">
+        <v>1254825885</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2020</v>
+      </c>
+      <c r="B11">
+        <v>12545</v>
+      </c>
+      <c r="C11">
+        <v>1254825885</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>12545</v>
+      </c>
+      <c r="C12">
+        <v>1254825885</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2020</v>
+      </c>
+      <c r="B13">
+        <v>12545</v>
+      </c>
+      <c r="C13">
+        <v>1254825885</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>